--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.239262</v>
+        <v>0.168144</v>
       </c>
       <c r="N2">
-        <v>0.717786</v>
+        <v>0.504432</v>
       </c>
       <c r="O2">
-        <v>0.08715472402266847</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P2">
-        <v>0.08715472402266845</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q2">
-        <v>2.736468364948</v>
+        <v>1.759644671168</v>
       </c>
       <c r="R2">
-        <v>24.628215284532</v>
+        <v>15.836802040512</v>
       </c>
       <c r="S2">
-        <v>0.05051775485054465</v>
+        <v>0.03024886016536434</v>
       </c>
       <c r="T2">
-        <v>0.05051775485054464</v>
+        <v>0.03024886016536434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.839785</v>
       </c>
       <c r="O3">
-        <v>0.4662328353874024</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P3">
-        <v>0.4662328353874023</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q3">
-        <v>14.63869479301889</v>
+        <v>13.39458482745111</v>
       </c>
       <c r="R3">
-        <v>131.74825313717</v>
+        <v>120.55126344706</v>
       </c>
       <c r="S3">
-        <v>0.2702439408247007</v>
+        <v>0.2302572388945656</v>
       </c>
       <c r="T3">
-        <v>0.2702439408247006</v>
+        <v>0.2302572388945656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H4">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J4">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.217387</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N4">
-        <v>3.652161</v>
+        <v>4.917797</v>
       </c>
       <c r="O4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P4">
-        <v>0.4434512292540573</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q4">
-        <v>13.92340201703133</v>
+        <v>17.15508787098356</v>
       </c>
       <c r="R4">
-        <v>125.310618153282</v>
+        <v>154.395790838852</v>
       </c>
       <c r="S4">
-        <v>0.2570389699335456</v>
+        <v>0.2949015006475566</v>
       </c>
       <c r="T4">
-        <v>0.2570389699335456</v>
+        <v>0.2949015006475565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.43712066666667</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H5">
-        <v>34.311362</v>
+        <v>17.262925</v>
       </c>
       <c r="I5">
-        <v>0.5796330080444665</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J5">
-        <v>0.5796330080444665</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008678333333333335</v>
+        <v>0.168144</v>
       </c>
       <c r="N5">
-        <v>0.026035</v>
+        <v>0.504432</v>
       </c>
       <c r="O5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P5">
-        <v>0.003161211335871936</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q5">
-        <v>0.09925514551888891</v>
+        <v>0.9675524204000001</v>
       </c>
       <c r="R5">
-        <v>0.8932963096700002</v>
+        <v>8.707971783600001</v>
       </c>
       <c r="S5">
-        <v>0.001832342435675717</v>
+        <v>0.01663253857263842</v>
       </c>
       <c r="T5">
-        <v>0.001832342435675716</v>
+        <v>0.01663253857263842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>17.262925</v>
       </c>
       <c r="I6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J6">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239262</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N6">
-        <v>0.717786</v>
+        <v>3.839785</v>
       </c>
       <c r="O6">
-        <v>0.08715472402266847</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P6">
-        <v>0.08715472402266845</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q6">
-        <v>1.37678732045</v>
+        <v>7.365102274569446</v>
       </c>
       <c r="R6">
-        <v>12.39108588405</v>
+        <v>66.28592047112501</v>
       </c>
       <c r="S6">
-        <v>0.02541677631897383</v>
+        <v>0.1266084866208695</v>
       </c>
       <c r="T6">
-        <v>0.02541677631897383</v>
+        <v>0.1266084866208695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>17.262925</v>
       </c>
       <c r="I7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J7">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.279928333333333</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N7">
-        <v>3.839785</v>
+        <v>4.917797</v>
       </c>
       <c r="O7">
-        <v>0.4662328353874024</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P7">
-        <v>0.4662328353874023</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q7">
-        <v>7.365102274569446</v>
+        <v>9.432840086247223</v>
       </c>
       <c r="R7">
-        <v>66.28592047112501</v>
+        <v>84.89556077622501</v>
       </c>
       <c r="S7">
-        <v>0.1359666480788855</v>
+        <v>0.1621535673686553</v>
       </c>
       <c r="T7">
-        <v>0.1359666480788855</v>
+        <v>0.1621535673686553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.754308333333334</v>
+        <v>2.146766</v>
       </c>
       <c r="H8">
-        <v>17.262925</v>
+        <v>6.440298</v>
       </c>
       <c r="I8">
-        <v>0.2916282118266253</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J8">
-        <v>0.2916282118266253</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.217387</v>
+        <v>0.168144</v>
       </c>
       <c r="N8">
-        <v>3.652161</v>
+        <v>0.504432</v>
       </c>
       <c r="O8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P8">
-        <v>0.4434512292540573</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q8">
-        <v>7.005220158991667</v>
+        <v>0.360965822304</v>
       </c>
       <c r="R8">
-        <v>63.046981430925</v>
+        <v>3.248692400736</v>
       </c>
       <c r="S8">
-        <v>0.1293228890196796</v>
+        <v>0.006205119057418489</v>
       </c>
       <c r="T8">
-        <v>0.1293228890196796</v>
+        <v>0.006205119057418489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.754308333333334</v>
+        <v>2.146766</v>
       </c>
       <c r="H9">
-        <v>17.262925</v>
+        <v>6.440298</v>
       </c>
       <c r="I9">
-        <v>0.2916282118266253</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J9">
-        <v>0.2916282118266253</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008678333333333335</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N9">
-        <v>0.026035</v>
+        <v>3.839785</v>
       </c>
       <c r="O9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P9">
-        <v>0.003161211335871936</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q9">
-        <v>0.04993780581944446</v>
+        <v>2.747706628436667</v>
       </c>
       <c r="R9">
-        <v>0.4494402523750001</v>
+        <v>24.72935965593</v>
       </c>
       <c r="S9">
-        <v>0.0009218984090863902</v>
+        <v>0.04723396430022214</v>
       </c>
       <c r="T9">
-        <v>0.0009218984090863901</v>
+        <v>0.04723396430022214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H10">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J10">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.239262</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N10">
-        <v>0.717786</v>
+        <v>4.917797</v>
       </c>
       <c r="O10">
-        <v>0.08715472402266847</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P10">
-        <v>0.08715472402266845</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q10">
-        <v>0.5438949243779999</v>
+        <v>3.519119798167333</v>
       </c>
       <c r="R10">
-        <v>4.895054319402</v>
+        <v>31.672078183506</v>
       </c>
       <c r="S10">
-        <v>0.01004080690503632</v>
+        <v>0.06049480581171591</v>
       </c>
       <c r="T10">
-        <v>0.01004080690503632</v>
+        <v>0.0604948058117159</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.273219</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H11">
-        <v>6.819656999999999</v>
+        <v>1.428084</v>
       </c>
       <c r="I11">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J11">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.279928333333333</v>
+        <v>0.168144</v>
       </c>
       <c r="N11">
-        <v>3.839785</v>
+        <v>0.504432</v>
       </c>
       <c r="O11">
-        <v>0.4662328353874024</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="P11">
-        <v>0.4662328353874023</v>
+        <v>0.05446245276675245</v>
       </c>
       <c r="Q11">
-        <v>2.909557405971666</v>
+        <v>0.08004125203200001</v>
       </c>
       <c r="R11">
-        <v>26.186016653745</v>
+        <v>0.720371268288</v>
       </c>
       <c r="S11">
-        <v>0.05371313976847538</v>
+        <v>0.001375934971331207</v>
       </c>
       <c r="T11">
-        <v>0.05371313976847538</v>
+        <v>0.001375934971331207</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.273219</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H12">
-        <v>6.819656999999999</v>
+        <v>1.428084</v>
       </c>
       <c r="I12">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J12">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.217387</v>
+        <v>1.279928333333333</v>
       </c>
       <c r="N12">
-        <v>3.652161</v>
+        <v>3.839785</v>
       </c>
       <c r="O12">
-        <v>0.4434512292540573</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="P12">
-        <v>0.4434512292540573</v>
+        <v>0.4145734394268892</v>
       </c>
       <c r="Q12">
-        <v>2.767387258752999</v>
+        <v>0.6092817246600001</v>
       </c>
       <c r="R12">
-        <v>24.90648532877699</v>
+        <v>5.48353552194</v>
       </c>
       <c r="S12">
-        <v>0.05108854642902527</v>
+        <v>0.01047374961123203</v>
       </c>
       <c r="T12">
-        <v>0.05108854642902527</v>
+        <v>0.01047374961123203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.273219</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H13">
-        <v>6.819656999999999</v>
+        <v>1.428084</v>
       </c>
       <c r="I13">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J13">
-        <v>0.1152066857836043</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008678333333333335</v>
+        <v>1.639265666666667</v>
       </c>
       <c r="N13">
-        <v>0.026035</v>
+        <v>4.917797</v>
       </c>
       <c r="O13">
-        <v>0.003161211335871936</v>
+        <v>0.5309641078063584</v>
       </c>
       <c r="P13">
-        <v>0.003161211335871936</v>
+        <v>0.5309641078063583</v>
       </c>
       <c r="Q13">
-        <v>0.01972775222166667</v>
+        <v>0.7803363567720001</v>
       </c>
       <c r="R13">
-        <v>0.177549769995</v>
+        <v>7.023027210948001</v>
       </c>
       <c r="S13">
-        <v>0.0003641926810673662</v>
+        <v>0.01341423397843058</v>
       </c>
       <c r="T13">
-        <v>0.0003641926810673662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2670106666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.8010320000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="J14">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.239262</v>
-      </c>
-      <c r="N14">
-        <v>0.717786</v>
-      </c>
-      <c r="O14">
-        <v>0.08715472402266847</v>
-      </c>
-      <c r="P14">
-        <v>0.08715472402266845</v>
-      </c>
-      <c r="Q14">
-        <v>0.06388550612800001</v>
-      </c>
-      <c r="R14">
-        <v>0.5749695551520001</v>
-      </c>
-      <c r="S14">
-        <v>0.001179385948113674</v>
-      </c>
-      <c r="T14">
-        <v>0.001179385948113674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2670106666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.8010320000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="J15">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.279928333333333</v>
-      </c>
-      <c r="N15">
-        <v>3.839785</v>
-      </c>
-      <c r="O15">
-        <v>0.4662328353874024</v>
-      </c>
-      <c r="P15">
-        <v>0.4662328353874023</v>
-      </c>
-      <c r="Q15">
-        <v>0.3417545175688889</v>
-      </c>
-      <c r="R15">
-        <v>3.07579065812</v>
-      </c>
-      <c r="S15">
-        <v>0.006309106715340871</v>
-      </c>
-      <c r="T15">
-        <v>0.006309106715340871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2670106666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.8010320000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="J16">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.217387</v>
-      </c>
-      <c r="N16">
-        <v>3.652161</v>
-      </c>
-      <c r="O16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="P16">
-        <v>0.4434512292540573</v>
-      </c>
-      <c r="Q16">
-        <v>0.3250553144613333</v>
-      </c>
-      <c r="R16">
-        <v>2.925497830152</v>
-      </c>
-      <c r="S16">
-        <v>0.006000823871806892</v>
-      </c>
-      <c r="T16">
-        <v>0.006000823871806893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2670106666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.8010320000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="J17">
-        <v>0.0135320943453039</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.008678333333333335</v>
-      </c>
-      <c r="N17">
-        <v>0.026035</v>
-      </c>
-      <c r="O17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="P17">
-        <v>0.003161211335871936</v>
-      </c>
-      <c r="Q17">
-        <v>0.00231720756888889</v>
-      </c>
-      <c r="R17">
-        <v>0.02085486812000001</v>
-      </c>
-      <c r="S17">
-        <v>4.277781004246321E-05</v>
-      </c>
-      <c r="T17">
-        <v>4.277781004246321E-05</v>
+        <v>0.01341423397843058</v>
       </c>
     </row>
   </sheetData>
